--- a/mallet/15_AM.xlsx
+++ b/mallet/15_AM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apovzner\Documents\Hakluyt\mallet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA9CA15-7BCC-4B7E-95F8-78F24D11C8D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637EE601-0274-4F1A-9C9E-708F9A8820E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="10695" tabRatio="631" xr2:uid="{468B4E7C-0EDA-419C-AC8A-BFE265156530}"/>
   </bookViews>
@@ -35,7 +35,7 @@
     <author>Anton Povzner</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{D38FCFF3-AF0C-44B2-B7CB-167B26DC0F5E}">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{D38FCFF3-AF0C-44B2-B7CB-167B26DC0F5E}">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Anton Povzner:</t>
         </r>
@@ -52,7 +52,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 topic seems to center on lists of names, then extend through name-dropping letters--but the words do seem to cohere topically</t>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="231">
   <si>
     <t>sailing_tech</t>
   </si>
@@ -876,442 +876,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">king river make </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fort</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>soldier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> cause man captain send victual france certain </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>paracoussy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> day spaniard </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>utina</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>indians</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>savage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> mean bark take monsieur number florida discover french advertise village </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>indian</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> name ribault embark place </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enemy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> league house </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>war</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pray lieutenant silver space thing side enterprise wood command return frenchman present sail </t>
-    </r>
-  </si>
-  <si>
     <t>Eur_nat_hostil</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">river guiana gold spaniard call nation berreo great trinidad far orenoque town mountain </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>indians indies</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> province </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>indian canoas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> side mile empire branch mouth captain rest fall dorado enter pass west carapana amazones rich year way peru diverse trade king </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enemy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> name nuevo near manoa send return seek spanish land morequito </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">town great majesty fleet place harbour ship fort saint generali good </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enemy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> spanish letter sir </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>soldier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> lie </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>march</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> indies city side ordinance send puerto </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> drake small english number </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>take</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dios </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>war</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> build general store stand </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> frigate bark order cartagena keep </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>burn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> make castle write governor way vice-admiral galley </t>
-    </r>
   </si>
   <si>
     <r>
@@ -1454,6 +1019,613 @@
       <t xml:space="preserve"> year place man mexico send house coast peru negro land silver gold port carry saint number certain strait way john mountain province build englishman viceroy english make people stand pass lie bring store inhabit drake </t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>king river make</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soldier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cause man captain send victual france certain </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>paracoussy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> day </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spaniard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>utina</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>savage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mean bark take monsieur number </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>florida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> discover </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>french</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> advertise village </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> name ribault embark place </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enemy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> league house </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>war</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pray lieutenant silver space thing side enterprise wood command return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>frenchman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> present sail </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">town great majesty fleet place harbour ship fort saint generali good </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enemy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spanish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> letter sir </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soldier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lie </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>march</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> indies city side ordinance send puerto </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> small </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>english</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> number </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>take</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dios </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>war</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> build general store stand </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> frigate bark order cartagena keep </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>burn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> make castle write governor way vice-admiral galley </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">river guiana gold spaniard call nation berreo great trinidad far orenoque town mountain </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indians indies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> province </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indian canoas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> side mile empire branch mouth captain rest fall dorado enter pass west carapana amazones rich year way peru diverse trade king </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enemy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> name nuevo near manoa send return seek spanish land morequito </t>
+    </r>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
 </sst>
 </file>
 
@@ -1462,7 +1634,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1482,22 +1654,55 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1512,15 +1717,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2896,7 +3110,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$D$1</c15:sqref>
@@ -2925,7 +3139,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$D$2:$D$199</c15:sqref>
@@ -3533,7 +3747,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-15D3-47F6-AB30-757C5F6006CF}"/>
                   </c:ext>
@@ -3546,7 +3760,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$E$1</c15:sqref>
@@ -3575,7 +3789,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$E$2:$E$199</c15:sqref>
@@ -4183,7 +4397,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-15D3-47F6-AB30-757C5F6006CF}"/>
                   </c:ext>
@@ -4196,7 +4410,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$F$1</c15:sqref>
@@ -4225,7 +4439,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$F$2:$F$199</c15:sqref>
@@ -4833,7 +5047,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-15D3-47F6-AB30-757C5F6006CF}"/>
                   </c:ext>
@@ -4846,7 +5060,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$G$1</c15:sqref>
@@ -4875,7 +5089,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$G$2:$G$199</c15:sqref>
@@ -5483,7 +5697,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-15D3-47F6-AB30-757C5F6006CF}"/>
                   </c:ext>
@@ -5496,7 +5710,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$H$1</c15:sqref>
@@ -5525,7 +5739,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$H$2:$H$199</c15:sqref>
@@ -6133,7 +6347,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-15D3-47F6-AB30-757C5F6006CF}"/>
                   </c:ext>
@@ -6146,7 +6360,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$I$1</c15:sqref>
@@ -6177,7 +6391,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$I$2:$I$199</c15:sqref>
@@ -6785,7 +6999,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-15D3-47F6-AB30-757C5F6006CF}"/>
                   </c:ext>
@@ -6798,7 +7012,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$J$1</c15:sqref>
@@ -6829,7 +7043,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$J$2:$J$199</c15:sqref>
@@ -7437,7 +7651,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-15D3-47F6-AB30-757C5F6006CF}"/>
                   </c:ext>
@@ -7450,7 +7664,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$K$1</c15:sqref>
@@ -7481,7 +7695,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$K$2:$K$199</c15:sqref>
@@ -8089,7 +8303,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-15D3-47F6-AB30-757C5F6006CF}"/>
                   </c:ext>
@@ -8102,7 +8316,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$L$1</c15:sqref>
@@ -8133,7 +8347,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$L$2:$L$199</c15:sqref>
@@ -8741,7 +8955,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-15D3-47F6-AB30-757C5F6006CF}"/>
                   </c:ext>
@@ -8754,7 +8968,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$M$1</c15:sqref>
@@ -8785,7 +8999,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$M$2:$M$199</c15:sqref>
@@ -9393,7 +9607,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-15D3-47F6-AB30-757C5F6006CF}"/>
                   </c:ext>
@@ -9406,7 +9620,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$N$1</c15:sqref>
@@ -9437,7 +9651,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$N$2:$N$199</c15:sqref>
@@ -10045,7 +10259,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-15D3-47F6-AB30-757C5F6006CF}"/>
                   </c:ext>
@@ -10058,7 +10272,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$P$1</c15:sqref>
@@ -10090,7 +10304,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$P$2:$P$199</c15:sqref>
@@ -10698,7 +10912,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-15D3-47F6-AB30-757C5F6006CF}"/>
                   </c:ext>
@@ -10711,7 +10925,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$Q$1</c15:sqref>
@@ -10743,7 +10957,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>docs!$Q$2:$Q$199</c15:sqref>
@@ -11351,7 +11565,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-15D3-47F6-AB30-757C5F6006CF}"/>
                   </c:ext>
@@ -12446,231 +12660,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755A0F22-9D7C-42BD-B5D6-308444EEE854}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B1:B15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="165.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="4">
         <v>7.5009999999999993E-2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="4">
+        <f>B2/2.8</f>
+        <v>2.6789285714285713E-2</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="15">
         <v>0.20451</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="15">
+        <f t="shared" ref="C3:C16" si="0">B3/2.8</f>
+        <v>7.3039285714285723E-2</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E3" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.16261</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8075000000000009E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="C5" s="15">
+        <f t="shared" si="0"/>
+        <v>3.5285714285714288E-2</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.16134000000000001</v>
+      </c>
+      <c r="C6" s="15">
+        <f t="shared" si="0"/>
+        <v>5.762142857142858E-2</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.1449</v>
+      </c>
+      <c r="C7" s="15">
+        <f t="shared" si="0"/>
+        <v>5.1750000000000004E-2</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.79722000000000004</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28472142857142863</v>
+      </c>
+      <c r="D8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15">
+        <v>3.1469999999999998E-2</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1239285714285714E-2</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="10" spans="1:5" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.10992</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="0"/>
+        <v>3.9257142857142859E-2</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>5.6428571428571439E-3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <v>6.1749999999999999E-2</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2053571428571429E-2</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.38478000000000001</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13742142857142858</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.21845999999999999</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>7.8021428571428575E-2</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.32940000000000003</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11764285714285716</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.16261</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.16134000000000001</v>
-      </c>
-      <c r="C5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.1449</v>
-      </c>
-      <c r="C6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.79722000000000004</v>
-      </c>
-      <c r="C7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3.1469999999999998E-2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="E15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0.10992</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>6.1749999999999999E-2</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.38478000000000001</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0.21845999999999999</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0.32940000000000003</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15">
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="7">
         <v>8.1700000000000002E-3</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" s="7">
+        <f t="shared" si="0"/>
+        <v>2.917857142857143E-3</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E16" s="8" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:D15">
-    <sortCondition ref="C1"/>
+  <sortState ref="A2:E16">
+    <sortCondition ref="D2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12683,7 +12976,7 @@
   <dimension ref="A1:AF590"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:Q1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12717,7 +13010,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C1" t="str">
-        <f t="array" ref="C1:Q1">TRANSPOSE(keys!C1:C15)</f>
+        <f t="array" ref="C1:Q1">TRANSPOSE(keys!D2:D16)</f>
         <v>sailing_tech</v>
       </c>
       <c r="D1" t="str">
